--- a/docs/Analisis de eficiencia.xlsx
+++ b/docs/Analisis de eficiencia.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDVR\Desktop\juanda\Tercer semestre 2019-2\Estructuras de datos\Talleres\T4_201920_jdvillamil_mgpaez\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielapaez/Desktop/Estructura de Datos/T4_201920_jdvillamil_mgpaez/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C49EAC57-802D-4FBE-A2FE-73BE73F08FA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9CF5AAD-E6A7-4D66-82CB-6125721F18E2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>¿Cuándo ocurre el peor caso de agregar()?</t>
   </si>
@@ -72,12 +74,18 @@
   </si>
   <si>
     <t>(Promedio de sacar 200,000 datos de una cola con 200,000 datos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se agrega el maximo </t>
+  </si>
+  <si>
+    <t>cuando se agrega el minino. Osea el ultimo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,51 +121,51 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -493,21 +501,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B1ED1B-A323-4DE6-B2A2-8458B2F64F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -516,84 +525,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>

--- a/docs/Analisis de eficiencia.xlsx
+++ b/docs/Analisis de eficiencia.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielapaez/Desktop/Estructura de Datos/T4_201920_jdvillamil_mgpaez/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDVR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591028E0-BBC1-45F8-A040-19E92F26B9F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="11940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>¿Cuándo ocurre el peor caso de agregar()?</t>
   </si>
@@ -80,12 +76,39 @@
   </si>
   <si>
     <t>cuando se agrega el minino. Osea el ultimo</t>
+  </si>
+  <si>
+    <t>Cuando se agrega un elemento que es mayor al mayor elemento</t>
+  </si>
+  <si>
+    <t>Cuando se agrega un elemento que es menor a el padre de la ultima posicion del heap</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(log(n))</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>Cuando solo hay un elemento en la cola</t>
+  </si>
+  <si>
+    <t>Cuando solo hay un elemento en el heap</t>
+  </si>
+  <si>
+    <t>Cuando hay muchos elementos en la cola</t>
+  </si>
+  <si>
+    <t>Cuando el elemento al que se le hace sink es menor a todos los demas elementos del heap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,22 +524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.5" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -525,88 +548,116 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>

--- a/docs/Analisis de eficiencia.xlsx
+++ b/docs/Analisis de eficiencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDVR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDVR\Desktop\juanda\Tercer semestre 2019-2\Estructuras de datos\Talleres\T4_201920_jdvillamil_mgpaez\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591028E0-BBC1-45F8-A040-19E92F26B9F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8311315-B4A5-4A1C-9210-94D29A494639}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
